--- a/data/pca/factorExposure/factorExposure_2016-01-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01976645343994353</v>
+        <v>-0.01885842845947032</v>
       </c>
       <c r="C2">
-        <v>-0.04029040146533228</v>
+        <v>0.03913528939807071</v>
       </c>
       <c r="D2">
-        <v>-0.09773126822198167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1188735252880888</v>
+      </c>
+      <c r="E2">
+        <v>0.08165676476294466</v>
+      </c>
+      <c r="F2">
+        <v>-0.005957521237117801</v>
+      </c>
+      <c r="G2">
+        <v>-0.03777622349403053</v>
+      </c>
+      <c r="H2">
+        <v>0.1017251227532428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01882786260990196</v>
+        <v>-0.0112144231680538</v>
       </c>
       <c r="C3">
-        <v>-0.06289180353876057</v>
+        <v>0.03581687981904286</v>
       </c>
       <c r="D3">
-        <v>-0.152021682476366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07968776089491404</v>
+      </c>
+      <c r="E3">
+        <v>0.08948266408562297</v>
+      </c>
+      <c r="F3">
+        <v>-0.03865367135362341</v>
+      </c>
+      <c r="G3">
+        <v>-0.09489572329478492</v>
+      </c>
+      <c r="H3">
+        <v>0.0369030128759843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05060415661371486</v>
+        <v>-0.05526709797477836</v>
       </c>
       <c r="C4">
-        <v>-0.04249208464550779</v>
+        <v>0.06547698833825993</v>
       </c>
       <c r="D4">
-        <v>-0.1284933351325856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1352749797313064</v>
+      </c>
+      <c r="E4">
+        <v>0.05913803951276765</v>
+      </c>
+      <c r="F4">
+        <v>-0.02021139620454878</v>
+      </c>
+      <c r="G4">
+        <v>0.02461880991061954</v>
+      </c>
+      <c r="H4">
+        <v>-0.03192512997526525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04573694224144423</v>
+        <v>-0.04173513260459261</v>
       </c>
       <c r="C6">
-        <v>-0.01364449726725914</v>
+        <v>0.02601632228077514</v>
       </c>
       <c r="D6">
-        <v>-0.1245683654039619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1251527320767827</v>
+      </c>
+      <c r="E6">
+        <v>0.04175330862262792</v>
+      </c>
+      <c r="F6">
+        <v>-0.01374056082685234</v>
+      </c>
+      <c r="G6">
+        <v>-0.009721254177008618</v>
+      </c>
+      <c r="H6">
+        <v>0.01054494170976586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02450584093654399</v>
+        <v>-0.01828133633251297</v>
       </c>
       <c r="C7">
-        <v>-0.01789820709645583</v>
+        <v>0.03081222507077455</v>
       </c>
       <c r="D7">
-        <v>-0.08737629569846136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09188214594264114</v>
+      </c>
+      <c r="E7">
+        <v>0.04402447147932038</v>
+      </c>
+      <c r="F7">
+        <v>-0.01339851516647012</v>
+      </c>
+      <c r="G7">
+        <v>0.03756456283508245</v>
+      </c>
+      <c r="H7">
+        <v>0.09599163849011701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009958918276951046</v>
+        <v>-0.009115050404896073</v>
       </c>
       <c r="C8">
-        <v>-0.03209048079841217</v>
+        <v>0.03558745631982197</v>
       </c>
       <c r="D8">
-        <v>-0.06471594132977733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07224570062636106</v>
+      </c>
+      <c r="E8">
+        <v>0.04098106900467842</v>
+      </c>
+      <c r="F8">
+        <v>-0.0350293727875218</v>
+      </c>
+      <c r="G8">
+        <v>0.0007026121376590443</v>
+      </c>
+      <c r="H8">
+        <v>0.03177151406854693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03882012472797793</v>
+        <v>-0.04112780301339369</v>
       </c>
       <c r="C9">
-        <v>-0.03659882979336106</v>
+        <v>0.05703949184132515</v>
       </c>
       <c r="D9">
-        <v>-0.1065595443189659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1147891723372849</v>
+      </c>
+      <c r="E9">
+        <v>0.04648612853398667</v>
+      </c>
+      <c r="F9">
+        <v>-0.001715031971582653</v>
+      </c>
+      <c r="G9">
+        <v>0.0256803928011363</v>
+      </c>
+      <c r="H9">
+        <v>0.005937021542784814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.08997636917622291</v>
+        <v>-0.1263354461310034</v>
       </c>
       <c r="C10">
-        <v>0.1973846327013579</v>
+        <v>-0.1955611684745372</v>
       </c>
       <c r="D10">
-        <v>-0.001865303702544981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001049865372600209</v>
+      </c>
+      <c r="E10">
+        <v>0.05509340079982947</v>
+      </c>
+      <c r="F10">
+        <v>-0.01234993736787362</v>
+      </c>
+      <c r="G10">
+        <v>0.037458552423229</v>
+      </c>
+      <c r="H10">
+        <v>-0.01571359701988409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03386064102341003</v>
+        <v>-0.0288605355294073</v>
       </c>
       <c r="C11">
-        <v>-0.03776121184854962</v>
+        <v>0.04274447196360109</v>
       </c>
       <c r="D11">
-        <v>-0.05872960695209822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05885894300595761</v>
+      </c>
+      <c r="E11">
+        <v>0.00689466656828079</v>
+      </c>
+      <c r="F11">
+        <v>-0.006501197692318171</v>
+      </c>
+      <c r="G11">
+        <v>0.01569035577860841</v>
+      </c>
+      <c r="H11">
+        <v>0.05201584318439002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03892429731517233</v>
+        <v>-0.03353612898702378</v>
       </c>
       <c r="C12">
-        <v>-0.03479134944742013</v>
+        <v>0.04250740532988748</v>
       </c>
       <c r="D12">
-        <v>-0.0567744106704161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05595484941034693</v>
+      </c>
+      <c r="E12">
+        <v>0.01912610987792271</v>
+      </c>
+      <c r="F12">
+        <v>-0.0009192021485189165</v>
+      </c>
+      <c r="G12">
+        <v>0.01776433673036963</v>
+      </c>
+      <c r="H12">
+        <v>0.05999431293820692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01498127915747327</v>
+        <v>-0.01994438195031623</v>
       </c>
       <c r="C13">
-        <v>-0.03253203676341824</v>
+        <v>0.03881795669813348</v>
       </c>
       <c r="D13">
-        <v>-0.1293069962030097</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1398577420752272</v>
+      </c>
+      <c r="E13">
+        <v>0.07876806325456616</v>
+      </c>
+      <c r="F13">
+        <v>-0.02407322424958171</v>
+      </c>
+      <c r="G13">
+        <v>0.02100242588846599</v>
+      </c>
+      <c r="H13">
+        <v>0.08944844164414698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01071290726574353</v>
+        <v>-0.007287982616357581</v>
       </c>
       <c r="C14">
-        <v>-0.01264933898282686</v>
+        <v>0.02224903284683935</v>
       </c>
       <c r="D14">
-        <v>-0.07908554859026194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08256247124697247</v>
+      </c>
+      <c r="E14">
+        <v>0.04565065218294195</v>
+      </c>
+      <c r="F14">
+        <v>0.01373927163464517</v>
+      </c>
+      <c r="G14">
+        <v>0.02069989815172637</v>
+      </c>
+      <c r="H14">
+        <v>0.09741919345971169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001664847286956354</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.008060241521543471</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02641105902645577</v>
+      </c>
+      <c r="E15">
+        <v>0.006547241631450765</v>
+      </c>
+      <c r="F15">
+        <v>0.002835110559093937</v>
+      </c>
+      <c r="G15">
+        <v>-0.0035563674318709</v>
+      </c>
+      <c r="H15">
+        <v>0.01404267642662617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03555738329043139</v>
+        <v>-0.03007844546761582</v>
       </c>
       <c r="C16">
-        <v>-0.04182121340733032</v>
+        <v>0.04386622563233887</v>
       </c>
       <c r="D16">
-        <v>-0.0648822117871342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06068742138691093</v>
+      </c>
+      <c r="E16">
+        <v>0.02071365136050049</v>
+      </c>
+      <c r="F16">
+        <v>0.007383650739052239</v>
+      </c>
+      <c r="G16">
+        <v>0.01342338546420822</v>
+      </c>
+      <c r="H16">
+        <v>0.05914896548901834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01205681347898376</v>
+        <v>-0.01170508248924516</v>
       </c>
       <c r="C19">
-        <v>-0.0210379342959954</v>
+        <v>0.02539493573660357</v>
       </c>
       <c r="D19">
-        <v>-0.1742850354527316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1312226239901601</v>
+      </c>
+      <c r="E19">
+        <v>0.07164708743291456</v>
+      </c>
+      <c r="F19">
+        <v>0.03004658523306418</v>
+      </c>
+      <c r="G19">
+        <v>-0.002742129250566629</v>
+      </c>
+      <c r="H19">
+        <v>0.0552275181084869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02050194663160475</v>
+        <v>-0.01631578477320146</v>
       </c>
       <c r="C20">
-        <v>-0.02606263973230335</v>
+        <v>0.03494053418705368</v>
       </c>
       <c r="D20">
-        <v>-0.09255052745285416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09474035487066583</v>
+      </c>
+      <c r="E20">
+        <v>0.06366429537498336</v>
+      </c>
+      <c r="F20">
+        <v>0.006355801869882638</v>
+      </c>
+      <c r="G20">
+        <v>0.01137201590087827</v>
+      </c>
+      <c r="H20">
+        <v>0.05318887878733382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01041092457514287</v>
+        <v>-0.01455679016545926</v>
       </c>
       <c r="C21">
-        <v>-0.0164315870145884</v>
+        <v>0.03438260355461881</v>
       </c>
       <c r="D21">
-        <v>-0.1248662568701445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1322544632544657</v>
+      </c>
+      <c r="E21">
+        <v>0.1006155238656707</v>
+      </c>
+      <c r="F21">
+        <v>0.01425821124029296</v>
+      </c>
+      <c r="G21">
+        <v>0.06350146495639872</v>
+      </c>
+      <c r="H21">
+        <v>0.09805470341499652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002267077453653055</v>
+        <v>-0.005458274771540132</v>
       </c>
       <c r="C22">
-        <v>-0.01569324238383656</v>
+        <v>0.03699855821670293</v>
       </c>
       <c r="D22">
-        <v>-0.05935915457273039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1200094506259548</v>
+      </c>
+      <c r="E22">
+        <v>0.03537595354567503</v>
+      </c>
+      <c r="F22">
+        <v>-0.0747017274457541</v>
+      </c>
+      <c r="G22">
+        <v>-0.05006187538645562</v>
+      </c>
+      <c r="H22">
+        <v>-0.01107905309492095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002314882255205791</v>
+        <v>-0.005555244562353815</v>
       </c>
       <c r="C23">
-        <v>-0.01551427689597545</v>
+        <v>0.03741589334799896</v>
       </c>
       <c r="D23">
-        <v>-0.0590215349305061</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1194519510591142</v>
+      </c>
+      <c r="E23">
+        <v>0.03558583271898073</v>
+      </c>
+      <c r="F23">
+        <v>-0.07460221826539058</v>
+      </c>
+      <c r="G23">
+        <v>-0.049257431712591</v>
+      </c>
+      <c r="H23">
+        <v>-0.01150194394929824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03493436412371068</v>
+        <v>-0.03197627159527435</v>
       </c>
       <c r="C24">
-        <v>-0.04361806416024051</v>
+        <v>0.05319316418729524</v>
       </c>
       <c r="D24">
-        <v>-0.06506596163637129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06502407859892609</v>
+      </c>
+      <c r="E24">
+        <v>0.02417070479912133</v>
+      </c>
+      <c r="F24">
+        <v>0.004754036907675603</v>
+      </c>
+      <c r="G24">
+        <v>0.02633893680606276</v>
+      </c>
+      <c r="H24">
+        <v>0.06633166730981212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04236268519177517</v>
+        <v>-0.03691913091451786</v>
       </c>
       <c r="C25">
-        <v>-0.04514899897126872</v>
+        <v>0.05128288862341447</v>
       </c>
       <c r="D25">
-        <v>-0.06689007075990142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.061056323157525</v>
+      </c>
+      <c r="E25">
+        <v>0.0247351167548677</v>
+      </c>
+      <c r="F25">
+        <v>-0.00808929178127119</v>
+      </c>
+      <c r="G25">
+        <v>0.02799231553860014</v>
+      </c>
+      <c r="H25">
+        <v>0.05315823840154323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02287396799185151</v>
+        <v>-0.0207223865754436</v>
       </c>
       <c r="C26">
-        <v>-0.005966775671668587</v>
+        <v>0.01682021821453502</v>
       </c>
       <c r="D26">
-        <v>-0.05353698338438184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06338629789564765</v>
+      </c>
+      <c r="E26">
+        <v>0.03137061847968805</v>
+      </c>
+      <c r="F26">
+        <v>0.003999587154178239</v>
+      </c>
+      <c r="G26">
+        <v>0.01066248487754122</v>
+      </c>
+      <c r="H26">
+        <v>0.05775512158199331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1258360654418005</v>
+        <v>-0.1787565805228775</v>
       </c>
       <c r="C28">
-        <v>0.2799025131673155</v>
+        <v>-0.2613994050627004</v>
       </c>
       <c r="D28">
-        <v>0.03276918116004357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01412237267832609</v>
+      </c>
+      <c r="E28">
+        <v>0.07153090586378659</v>
+      </c>
+      <c r="F28">
+        <v>-0.002017543201532205</v>
+      </c>
+      <c r="G28">
+        <v>0.0787067760127719</v>
+      </c>
+      <c r="H28">
+        <v>-0.01068640174766217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004489778047369407</v>
+        <v>-0.006633584905458822</v>
       </c>
       <c r="C29">
-        <v>-0.01432874618408861</v>
+        <v>0.0202507169704917</v>
       </c>
       <c r="D29">
-        <v>-0.06183912094223471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.076225812582666</v>
+      </c>
+      <c r="E29">
+        <v>0.04868603829978822</v>
+      </c>
+      <c r="F29">
+        <v>-0.0002365224733470846</v>
+      </c>
+      <c r="G29">
+        <v>0.03496045340166784</v>
+      </c>
+      <c r="H29">
+        <v>0.09309346987300939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04339198181650023</v>
+        <v>-0.04398067787007088</v>
       </c>
       <c r="C30">
-        <v>-0.03334951737156358</v>
+        <v>0.06086545275383801</v>
       </c>
       <c r="D30">
-        <v>-0.1538798791021629</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1737499685221138</v>
+      </c>
+      <c r="E30">
+        <v>0.03529210044692158</v>
+      </c>
+      <c r="F30">
+        <v>-0.001410613904483406</v>
+      </c>
+      <c r="G30">
+        <v>-0.02898541603831726</v>
+      </c>
+      <c r="H30">
+        <v>0.0215856472958898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06478554779178984</v>
+        <v>-0.05776821710451428</v>
       </c>
       <c r="C31">
-        <v>-0.04669078598915025</v>
+        <v>0.07044764052933804</v>
       </c>
       <c r="D31">
-        <v>-0.06380025002087762</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05097975564258277</v>
+      </c>
+      <c r="E31">
+        <v>0.04526741817441334</v>
+      </c>
+      <c r="F31">
+        <v>-0.04086734169824621</v>
+      </c>
+      <c r="G31">
+        <v>0.01828016669046048</v>
+      </c>
+      <c r="H31">
+        <v>0.02579311223998566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001476939391437175</v>
+        <v>-0.01066008496742363</v>
       </c>
       <c r="C32">
-        <v>0.003066972035014138</v>
+        <v>0.01767054024323158</v>
       </c>
       <c r="D32">
-        <v>-0.06511188942459817</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0910317855643652</v>
+      </c>
+      <c r="E32">
+        <v>0.09215503404261915</v>
+      </c>
+      <c r="F32">
+        <v>0.003115732907580528</v>
+      </c>
+      <c r="G32">
+        <v>0.06780107513278266</v>
+      </c>
+      <c r="H32">
+        <v>0.07783101643948168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02644606156686967</v>
+        <v>-0.02411141315608726</v>
       </c>
       <c r="C33">
-        <v>-0.02694873365492221</v>
+        <v>0.04331415600718811</v>
       </c>
       <c r="D33">
-        <v>-0.1374669813630235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1323236287684328</v>
+      </c>
+      <c r="E33">
+        <v>0.05854201187491382</v>
+      </c>
+      <c r="F33">
+        <v>-0.01691692806490532</v>
+      </c>
+      <c r="G33">
+        <v>0.01970116323684717</v>
+      </c>
+      <c r="H33">
+        <v>0.06326241694423845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.031978517354888</v>
+        <v>-0.02949494450734594</v>
       </c>
       <c r="C34">
-        <v>-0.05411041635913012</v>
+        <v>0.05961624796653461</v>
       </c>
       <c r="D34">
-        <v>-0.0615590435401426</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05873769803481751</v>
+      </c>
+      <c r="E34">
+        <v>0.00592835084576623</v>
+      </c>
+      <c r="F34">
+        <v>0.00284400018836979</v>
+      </c>
+      <c r="G34">
+        <v>0.02810016427713397</v>
+      </c>
+      <c r="H34">
+        <v>0.07147994208917781</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0005069534077671364</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0002508596936632778</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.002831471838321896</v>
+      </c>
+      <c r="E35">
+        <v>0.000453105200322161</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001922397041533995</v>
+      </c>
+      <c r="G35">
+        <v>0.0005706161126068663</v>
+      </c>
+      <c r="H35">
+        <v>0.002724552053234441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02069031893026776</v>
+        <v>-0.01800929215592416</v>
       </c>
       <c r="C36">
-        <v>-0.001330255830171266</v>
+        <v>0.01470344018355712</v>
       </c>
       <c r="D36">
-        <v>-0.07228725022874596</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07563731692666673</v>
+      </c>
+      <c r="E36">
+        <v>0.04208019124279773</v>
+      </c>
+      <c r="F36">
+        <v>0.003240110932033356</v>
+      </c>
+      <c r="G36">
+        <v>0.02344655755384123</v>
+      </c>
+      <c r="H36">
+        <v>0.04875737014733042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02999327395760653</v>
+        <v>-0.02388707619887081</v>
       </c>
       <c r="C38">
-        <v>-0.02812260386419934</v>
+        <v>0.02700741557632531</v>
       </c>
       <c r="D38">
-        <v>-0.06304763993418851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06175429863597554</v>
+      </c>
+      <c r="E38">
+        <v>0.0444201748106371</v>
+      </c>
+      <c r="F38">
+        <v>0.004184580790763553</v>
+      </c>
+      <c r="G38">
+        <v>-0.0304946375711104</v>
+      </c>
+      <c r="H38">
+        <v>0.04031896411986356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04293673219080441</v>
+        <v>-0.03857152287075406</v>
       </c>
       <c r="C39">
-        <v>-0.05362469574978355</v>
+        <v>0.06402563527245551</v>
       </c>
       <c r="D39">
-        <v>-0.08400073179164287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1020649870892807</v>
+      </c>
+      <c r="E39">
+        <v>0.02337925257775334</v>
+      </c>
+      <c r="F39">
+        <v>0.02189549656343245</v>
+      </c>
+      <c r="G39">
+        <v>0.01358391490408444</v>
+      </c>
+      <c r="H39">
+        <v>0.08558067326695784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01846795547331808</v>
+        <v>-0.01547890298257925</v>
       </c>
       <c r="C40">
-        <v>-0.04326204956479363</v>
+        <v>0.03722460010428585</v>
       </c>
       <c r="D40">
-        <v>-0.08345873221166093</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08326499311287942</v>
+      </c>
+      <c r="E40">
+        <v>0.08488161526022731</v>
+      </c>
+      <c r="F40">
+        <v>-0.05291050627355903</v>
+      </c>
+      <c r="G40">
+        <v>-0.002661077082332635</v>
+      </c>
+      <c r="H40">
+        <v>0.1566579728941652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02467633084776095</v>
+        <v>-0.02240775408322307</v>
       </c>
       <c r="C41">
-        <v>0.00429160109553982</v>
+        <v>0.009202087232384382</v>
       </c>
       <c r="D41">
-        <v>-0.07633684588074899</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0578975821040618</v>
+      </c>
+      <c r="E41">
+        <v>0.05753430471148411</v>
+      </c>
+      <c r="F41">
+        <v>0.001829677320361568</v>
+      </c>
+      <c r="G41">
+        <v>0.005617370243643008</v>
+      </c>
+      <c r="H41">
+        <v>0.04393615684173181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03475987107161305</v>
+        <v>-0.0254074953854466</v>
       </c>
       <c r="C43">
-        <v>-0.006641562927983759</v>
+        <v>0.01891748270818281</v>
       </c>
       <c r="D43">
-        <v>-0.1144833623379352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08768790242642895</v>
+      </c>
+      <c r="E43">
+        <v>0.04529731599340469</v>
+      </c>
+      <c r="F43">
+        <v>-0.005698205090494369</v>
+      </c>
+      <c r="G43">
+        <v>0.006516947983672203</v>
+      </c>
+      <c r="H43">
+        <v>0.06198873327151291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01433756689276345</v>
+        <v>-0.01775898433457232</v>
       </c>
       <c r="C44">
-        <v>-0.0394834548008392</v>
+        <v>0.04161796306978465</v>
       </c>
       <c r="D44">
-        <v>-0.08365843399405498</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09504028771973931</v>
+      </c>
+      <c r="E44">
+        <v>0.08044622062232444</v>
+      </c>
+      <c r="F44">
+        <v>0.005018473312442638</v>
+      </c>
+      <c r="G44">
+        <v>0.02328567987068671</v>
+      </c>
+      <c r="H44">
+        <v>0.06487643470810672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0205367495946922</v>
+        <v>-0.01690034015608292</v>
       </c>
       <c r="C46">
-        <v>-0.01273698804550663</v>
+        <v>0.02771485553413299</v>
       </c>
       <c r="D46">
-        <v>-0.07285182602550863</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08584420442113715</v>
+      </c>
+      <c r="E46">
+        <v>0.05103733390203191</v>
+      </c>
+      <c r="F46">
+        <v>0.02168539660521342</v>
+      </c>
+      <c r="G46">
+        <v>0.04392416672787067</v>
+      </c>
+      <c r="H46">
+        <v>0.09192159007856328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09329540004681848</v>
+        <v>-0.08811746494093974</v>
       </c>
       <c r="C47">
-        <v>-0.06713033234017339</v>
+        <v>0.08784384365695792</v>
       </c>
       <c r="D47">
-        <v>-0.03990704032810564</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03003028717592417</v>
+      </c>
+      <c r="E47">
+        <v>0.03995979984560841</v>
+      </c>
+      <c r="F47">
+        <v>-0.02373903384614828</v>
+      </c>
+      <c r="G47">
+        <v>0.05914715609877567</v>
+      </c>
+      <c r="H47">
+        <v>-0.004742938290519136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02160912814060367</v>
+        <v>-0.01933653747634738</v>
       </c>
       <c r="C48">
-        <v>-0.001879729934686359</v>
+        <v>0.01774016663158452</v>
       </c>
       <c r="D48">
-        <v>-0.07157812542563623</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07678681374314117</v>
+      </c>
+      <c r="E48">
+        <v>0.05645783837122637</v>
+      </c>
+      <c r="F48">
+        <v>0.0161966368731421</v>
+      </c>
+      <c r="G48">
+        <v>0.0209035406098144</v>
+      </c>
+      <c r="H48">
+        <v>0.05100014463179432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07800142307819437</v>
+        <v>-0.06329352275432353</v>
       </c>
       <c r="C50">
-        <v>-0.06168060464031365</v>
+        <v>0.06818048088439872</v>
       </c>
       <c r="D50">
-        <v>-0.06697208496959038</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05528393570778151</v>
+      </c>
+      <c r="E50">
+        <v>0.050128357222355</v>
+      </c>
+      <c r="F50">
+        <v>-0.04181817291623762</v>
+      </c>
+      <c r="G50">
+        <v>0.003645515857512929</v>
+      </c>
+      <c r="H50">
+        <v>0.03249160404970797</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.009516947099674987</v>
+        <v>-0.008990418900512682</v>
       </c>
       <c r="C51">
-        <v>-0.01332325475538099</v>
+        <v>0.01487977155705268</v>
       </c>
       <c r="D51">
-        <v>-0.0829796568433095</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08815406265964618</v>
+      </c>
+      <c r="E51">
+        <v>0.03280781169170006</v>
+      </c>
+      <c r="F51">
+        <v>0.005373077348671963</v>
+      </c>
+      <c r="G51">
+        <v>-0.0003303337748097475</v>
+      </c>
+      <c r="H51">
+        <v>0.07743167572094793</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07999270395297463</v>
+        <v>-0.09009355900973141</v>
       </c>
       <c r="C53">
-        <v>-0.0802847289908117</v>
+        <v>0.09535585732468149</v>
       </c>
       <c r="D53">
-        <v>-0.01921882106806862</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0009047524039244414</v>
+      </c>
+      <c r="E53">
+        <v>0.0983568708139024</v>
+      </c>
+      <c r="F53">
+        <v>-0.02648617605041566</v>
+      </c>
+      <c r="G53">
+        <v>0.08870869028470042</v>
+      </c>
+      <c r="H53">
+        <v>-0.04474437727029433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03383841299605912</v>
+        <v>-0.02727919899444512</v>
       </c>
       <c r="C54">
-        <v>-0.0235400597407755</v>
+        <v>0.03344108318751789</v>
       </c>
       <c r="D54">
-        <v>-0.08282937081454114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08630961848895004</v>
+      </c>
+      <c r="E54">
+        <v>0.05142298929362602</v>
+      </c>
+      <c r="F54">
+        <v>0.02049165336419805</v>
+      </c>
+      <c r="G54">
+        <v>0.01832897664561038</v>
+      </c>
+      <c r="H54">
+        <v>0.1087103879810175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08740616031537857</v>
+        <v>-0.08711377796844608</v>
       </c>
       <c r="C55">
-        <v>-0.05907374383647877</v>
+        <v>0.0772252431143652</v>
       </c>
       <c r="D55">
-        <v>-0.0002180223159882171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01484958259125571</v>
+      </c>
+      <c r="E55">
+        <v>0.05896675721861451</v>
+      </c>
+      <c r="F55">
+        <v>-0.02997446612369067</v>
+      </c>
+      <c r="G55">
+        <v>0.03967279373678238</v>
+      </c>
+      <c r="H55">
+        <v>-0.03391290209316743</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1403181444453236</v>
+        <v>-0.1377426464035892</v>
       </c>
       <c r="C56">
-        <v>-0.09736547509101055</v>
+        <v>0.1211070090471753</v>
       </c>
       <c r="D56">
-        <v>-0.01118155155533136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01443967741321091</v>
+      </c>
+      <c r="E56">
+        <v>0.05867626599138219</v>
+      </c>
+      <c r="F56">
+        <v>-0.01739635904464667</v>
+      </c>
+      <c r="G56">
+        <v>0.05431346487440522</v>
+      </c>
+      <c r="H56">
+        <v>-0.03847052578020239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.04231117540232228</v>
+        <v>-0.04022500768383416</v>
       </c>
       <c r="C58">
-        <v>0.02796370784062072</v>
+        <v>0.0187037075506799</v>
       </c>
       <c r="D58">
-        <v>-0.4274434656646898</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3785994687377426</v>
+      </c>
+      <c r="E58">
+        <v>0.2249161331127227</v>
+      </c>
+      <c r="F58">
+        <v>-0.1121869043817428</v>
+      </c>
+      <c r="G58">
+        <v>-0.4487740058923977</v>
+      </c>
+      <c r="H58">
+        <v>-0.3348430464176594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1352929732864122</v>
+        <v>-0.1653121976489</v>
       </c>
       <c r="C59">
-        <v>0.2084809550867547</v>
+        <v>-0.1797418038509042</v>
       </c>
       <c r="D59">
-        <v>-0.01695933238593263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04526443489138218</v>
+      </c>
+      <c r="E59">
+        <v>0.01700199860882396</v>
+      </c>
+      <c r="F59">
+        <v>0.0363100743682761</v>
+      </c>
+      <c r="G59">
+        <v>-0.002233119722236109</v>
+      </c>
+      <c r="H59">
+        <v>-0.01962560790903406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2599887032869062</v>
+        <v>-0.2368505426593696</v>
       </c>
       <c r="C60">
-        <v>-0.06993354882765278</v>
+        <v>0.0936020877332506</v>
       </c>
       <c r="D60">
-        <v>-0.1334881414437956</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1263751295146692</v>
+      </c>
+      <c r="E60">
+        <v>-0.352839221590425</v>
+      </c>
+      <c r="F60">
+        <v>-0.08962410935036759</v>
+      </c>
+      <c r="G60">
+        <v>0.01239305090713787</v>
+      </c>
+      <c r="H60">
+        <v>-0.0599236440275372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04705539154704812</v>
+        <v>-0.0421357180706936</v>
       </c>
       <c r="C61">
-        <v>-0.04798804302508327</v>
+        <v>0.05710739987224814</v>
       </c>
       <c r="D61">
-        <v>-0.09817912706365119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09338678095109333</v>
+      </c>
+      <c r="E61">
+        <v>0.02239195276469799</v>
+      </c>
+      <c r="F61">
+        <v>0.01068061622599592</v>
+      </c>
+      <c r="G61">
+        <v>0.03232863907524539</v>
+      </c>
+      <c r="H61">
+        <v>0.07415631935703666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01480487014905637</v>
+        <v>-0.01564302268217349</v>
       </c>
       <c r="C63">
-        <v>-0.01806396546328809</v>
+        <v>0.02893469569499068</v>
       </c>
       <c r="D63">
-        <v>-0.05650323929436447</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06925484986218472</v>
+      </c>
+      <c r="E63">
+        <v>0.05358777420123786</v>
+      </c>
+      <c r="F63">
+        <v>-0.02248960663508518</v>
+      </c>
+      <c r="G63">
+        <v>0.002485368807663722</v>
+      </c>
+      <c r="H63">
+        <v>0.04432095465808718</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05551939520311647</v>
+        <v>-0.05589386167538676</v>
       </c>
       <c r="C64">
-        <v>-0.05870807912946442</v>
+        <v>0.07423312531431633</v>
       </c>
       <c r="D64">
-        <v>-0.06664173034065086</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05471388083233016</v>
+      </c>
+      <c r="E64">
+        <v>0.04317824062647427</v>
+      </c>
+      <c r="F64">
+        <v>0.02093490123519026</v>
+      </c>
+      <c r="G64">
+        <v>0.05602545227821765</v>
+      </c>
+      <c r="H64">
+        <v>0.03848665295728858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0628926307047309</v>
+        <v>-0.05482613322639177</v>
       </c>
       <c r="C65">
-        <v>-0.005260463396537633</v>
+        <v>0.02294786326663266</v>
       </c>
       <c r="D65">
-        <v>-0.1104939322717903</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1147205872590496</v>
+      </c>
+      <c r="E65">
+        <v>0.01045162003669309</v>
+      </c>
+      <c r="F65">
+        <v>-0.02012548835603324</v>
+      </c>
+      <c r="G65">
+        <v>-0.04090200655086385</v>
+      </c>
+      <c r="H65">
+        <v>-0.02413412082080288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04722231375979186</v>
+        <v>-0.04522804217043509</v>
       </c>
       <c r="C66">
-        <v>-0.05448600815518106</v>
+        <v>0.07082311785904734</v>
       </c>
       <c r="D66">
-        <v>-0.1090876148082004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1272573162455989</v>
+      </c>
+      <c r="E66">
+        <v>0.02594717713120225</v>
+      </c>
+      <c r="F66">
+        <v>0.01193882868898502</v>
+      </c>
+      <c r="G66">
+        <v>0.006038899484667839</v>
+      </c>
+      <c r="H66">
+        <v>0.06341697699956253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04856526670455078</v>
+        <v>-0.04021334897151613</v>
       </c>
       <c r="C67">
-        <v>-0.03587990234663363</v>
+        <v>0.03276051631909117</v>
       </c>
       <c r="D67">
-        <v>-0.03642294981590907</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02718788012512964</v>
+      </c>
+      <c r="E67">
+        <v>0.02718724955594812</v>
+      </c>
+      <c r="F67">
+        <v>-0.003022398117764303</v>
+      </c>
+      <c r="G67">
+        <v>-0.02645276379593681</v>
+      </c>
+      <c r="H67">
+        <v>0.04027720414335315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1568860007344558</v>
+        <v>-0.1833968822168926</v>
       </c>
       <c r="C68">
-        <v>0.2774463992312569</v>
+        <v>-0.2242360462032049</v>
       </c>
       <c r="D68">
-        <v>0.02216215859649192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01111564245811085</v>
+      </c>
+      <c r="E68">
+        <v>0.05357828199964466</v>
+      </c>
+      <c r="F68">
+        <v>-0.02298952083580405</v>
+      </c>
+      <c r="G68">
+        <v>0.004047159556518055</v>
+      </c>
+      <c r="H68">
+        <v>-0.002510382836064384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08699529918795382</v>
+        <v>-0.08050184570569185</v>
       </c>
       <c r="C69">
-        <v>-0.07634348356153901</v>
+        <v>0.09666664442226394</v>
       </c>
       <c r="D69">
-        <v>-0.05027414845217784</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04268255857037361</v>
+      </c>
+      <c r="E69">
+        <v>0.03299716837759474</v>
+      </c>
+      <c r="F69">
+        <v>-0.001975020656344824</v>
+      </c>
+      <c r="G69">
+        <v>0.04692700095339276</v>
+      </c>
+      <c r="H69">
+        <v>0.01530427474317491</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1320748139143312</v>
+        <v>-0.1698396625592596</v>
       </c>
       <c r="C71">
-        <v>0.2533673429782839</v>
+        <v>-0.2289957228840874</v>
       </c>
       <c r="D71">
-        <v>-0.02532424319721833</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03572136027100791</v>
+      </c>
+      <c r="E71">
+        <v>0.05174620925105887</v>
+      </c>
+      <c r="F71">
+        <v>-0.02080210966907096</v>
+      </c>
+      <c r="G71">
+        <v>0.04432074247060452</v>
+      </c>
+      <c r="H71">
+        <v>0.007416454977649964</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09772926961380286</v>
+        <v>-0.1016390079286865</v>
       </c>
       <c r="C72">
-        <v>-0.0459524266279628</v>
+        <v>0.06223100312260892</v>
       </c>
       <c r="D72">
-        <v>-0.08396366722911033</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09035159067308014</v>
+      </c>
+      <c r="E72">
+        <v>-0.01806838057222136</v>
+      </c>
+      <c r="F72">
+        <v>-0.03151256020660261</v>
+      </c>
+      <c r="G72">
+        <v>0.03681330132829159</v>
+      </c>
+      <c r="H72">
+        <v>0.02896621023641255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3135059857738836</v>
+        <v>-0.2721406492629885</v>
       </c>
       <c r="C73">
-        <v>-0.02925054409727549</v>
+        <v>0.07646129005219357</v>
       </c>
       <c r="D73">
-        <v>-0.214538769866381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.2063800744543383</v>
+      </c>
+      <c r="E73">
+        <v>-0.6667118861444628</v>
+      </c>
+      <c r="F73">
+        <v>-0.1026086706331338</v>
+      </c>
+      <c r="G73">
+        <v>-0.06197649408322234</v>
+      </c>
+      <c r="H73">
+        <v>-0.1013483786316523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1070703325252538</v>
+        <v>-0.1052481929549593</v>
       </c>
       <c r="C74">
-        <v>-0.06846572237124227</v>
+        <v>0.08879632696649557</v>
       </c>
       <c r="D74">
-        <v>-0.03553322036473568</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.003253909097868588</v>
+      </c>
+      <c r="E74">
+        <v>0.08255546904265919</v>
+      </c>
+      <c r="F74">
+        <v>-0.04336278754563653</v>
+      </c>
+      <c r="G74">
+        <v>0.04626602271420087</v>
+      </c>
+      <c r="H74">
+        <v>-0.07047941127598016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2520051915670334</v>
+        <v>-0.2441995190358329</v>
       </c>
       <c r="C75">
-        <v>-0.124649277623852</v>
+        <v>0.1564351208439531</v>
       </c>
       <c r="D75">
-        <v>0.06046949673764802</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1141872029516166</v>
+      </c>
+      <c r="E75">
+        <v>0.07557622528605058</v>
+      </c>
+      <c r="F75">
+        <v>0.01956596469056276</v>
+      </c>
+      <c r="G75">
+        <v>0.0518658468728385</v>
+      </c>
+      <c r="H75">
+        <v>-0.1712825563776627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1245105881225052</v>
+        <v>-0.1272810987757301</v>
       </c>
       <c r="C76">
-        <v>-0.08090909258016746</v>
+        <v>0.1048307977797217</v>
       </c>
       <c r="D76">
-        <v>-0.0001797098106447712</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02424369232920225</v>
+      </c>
+      <c r="E76">
+        <v>0.1176264834998119</v>
+      </c>
+      <c r="F76">
+        <v>-0.009979155523216135</v>
+      </c>
+      <c r="G76">
+        <v>0.06024828426641358</v>
+      </c>
+      <c r="H76">
+        <v>-0.0369537778039913</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07925494346917224</v>
+        <v>-0.06675385153824442</v>
       </c>
       <c r="C77">
-        <v>-0.01772427761103252</v>
+        <v>0.07244480699578518</v>
       </c>
       <c r="D77">
-        <v>-0.1139321299246516</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1311516008367425</v>
+      </c>
+      <c r="E77">
+        <v>0.114387065170518</v>
+      </c>
+      <c r="F77">
+        <v>0.2966606578827592</v>
+      </c>
+      <c r="G77">
+        <v>-0.1123572406678962</v>
+      </c>
+      <c r="H77">
+        <v>-0.1772592713660165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03836599462949392</v>
+        <v>-0.04150292422230645</v>
       </c>
       <c r="C78">
-        <v>-0.04468995311620721</v>
+        <v>0.06101084917622314</v>
       </c>
       <c r="D78">
-        <v>-0.1097311462664547</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1233276445492295</v>
+      </c>
+      <c r="E78">
+        <v>0.03322479825298622</v>
+      </c>
+      <c r="F78">
+        <v>-0.01687794360594309</v>
+      </c>
+      <c r="G78">
+        <v>0.03854635853539443</v>
+      </c>
+      <c r="H78">
+        <v>0.03634317281394603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.001963863028391875</v>
+        <v>-0.04056457324197709</v>
       </c>
       <c r="C79">
-        <v>0.00282501901214983</v>
+        <v>0.07770097795295146</v>
       </c>
       <c r="D79">
-        <v>-0.01860621081218907</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04009551181838065</v>
+      </c>
+      <c r="E79">
+        <v>0.1655140687766411</v>
+      </c>
+      <c r="F79">
+        <v>-0.07629818922936074</v>
+      </c>
+      <c r="G79">
+        <v>0.4509022165168434</v>
+      </c>
+      <c r="H79">
+        <v>-0.5954590023194134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03245460224986331</v>
+        <v>-0.02653386373816241</v>
       </c>
       <c r="C80">
-        <v>-0.02618761655802924</v>
+        <v>0.04088661076171145</v>
       </c>
       <c r="D80">
-        <v>-0.03431088919637282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03711412072429687</v>
+      </c>
+      <c r="E80">
+        <v>0.01458842264237433</v>
+      </c>
+      <c r="F80">
+        <v>0.03659215899073994</v>
+      </c>
+      <c r="G80">
+        <v>-0.03416472079891548</v>
+      </c>
+      <c r="H80">
+        <v>0.04978151866227299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1444035666615595</v>
+        <v>-0.1340570612584571</v>
       </c>
       <c r="C81">
-        <v>-0.08378120746670426</v>
+        <v>0.1109432767623694</v>
       </c>
       <c r="D81">
-        <v>0.03405218244289449</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07503369421706389</v>
+      </c>
+      <c r="E81">
+        <v>0.1130166953755961</v>
+      </c>
+      <c r="F81">
+        <v>-0.0008315893934735802</v>
+      </c>
+      <c r="G81">
+        <v>0.04574894652182446</v>
+      </c>
+      <c r="H81">
+        <v>-0.06007875510896084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2813384122227933</v>
+        <v>-0.2500290473220975</v>
       </c>
       <c r="C82">
-        <v>-0.2309459755730059</v>
+        <v>0.226596558142952</v>
       </c>
       <c r="D82">
-        <v>0.2242988362352632</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2289098875521267</v>
+      </c>
+      <c r="E82">
+        <v>-0.001238969510759893</v>
+      </c>
+      <c r="F82">
+        <v>-0.03819626221657445</v>
+      </c>
+      <c r="G82">
+        <v>0.3385325373398294</v>
+      </c>
+      <c r="H82">
+        <v>0.4153930727435711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03885584900244447</v>
+        <v>-0.02639941198147288</v>
       </c>
       <c r="C83">
-        <v>-0.03498539206363733</v>
+        <v>0.0525379229313534</v>
       </c>
       <c r="D83">
-        <v>-0.07198373965259959</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0531464396652404</v>
+      </c>
+      <c r="E83">
+        <v>0.004280665319969246</v>
+      </c>
+      <c r="F83">
+        <v>0.02054422686729848</v>
+      </c>
+      <c r="G83">
+        <v>-0.002462079156441243</v>
+      </c>
+      <c r="H83">
+        <v>0.02618551555526939</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0003394019510416747</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004187770398387814</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.009491982158014299</v>
+      </c>
+      <c r="E84">
+        <v>0.01109366337557374</v>
+      </c>
+      <c r="F84">
+        <v>-0.003591865649588353</v>
+      </c>
+      <c r="G84">
+        <v>-0.006594163847832324</v>
+      </c>
+      <c r="H84">
+        <v>0.006160333448685656</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1842823948026258</v>
+        <v>-0.1659968446661201</v>
       </c>
       <c r="C85">
-        <v>-0.1015328681886306</v>
+        <v>0.1259115770469496</v>
       </c>
       <c r="D85">
-        <v>0.05408880625141509</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08444002752300184</v>
+      </c>
+      <c r="E85">
+        <v>0.03919658217967854</v>
+      </c>
+      <c r="F85">
+        <v>-0.03522616421347136</v>
+      </c>
+      <c r="G85">
+        <v>0.07859801347851095</v>
+      </c>
+      <c r="H85">
+        <v>-0.1404807159628639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01459861967426494</v>
+        <v>-0.02005816559731015</v>
       </c>
       <c r="C86">
-        <v>-0.01916643095890682</v>
+        <v>0.01701405633013987</v>
       </c>
       <c r="D86">
-        <v>-0.1358990037258217</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1203448751445774</v>
+      </c>
+      <c r="E86">
+        <v>0.02158921751772066</v>
+      </c>
+      <c r="F86">
+        <v>0.008204777864216176</v>
+      </c>
+      <c r="G86">
+        <v>0.03773031761347686</v>
+      </c>
+      <c r="H86">
+        <v>0.06025349163358812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02825441245769327</v>
+        <v>-0.03297672040457737</v>
       </c>
       <c r="C87">
-        <v>0.00371619304879474</v>
+        <v>0.0222600717513329</v>
       </c>
       <c r="D87">
-        <v>-0.0954437826722437</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1239996476699771</v>
+      </c>
+      <c r="E87">
+        <v>0.08960462628070079</v>
+      </c>
+      <c r="F87">
+        <v>0.02332878945737904</v>
+      </c>
+      <c r="G87">
+        <v>-0.002135303284224957</v>
+      </c>
+      <c r="H87">
+        <v>0.03320657993847164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08418800857974611</v>
+        <v>-0.07455214429379553</v>
       </c>
       <c r="C88">
-        <v>-0.05704457349259041</v>
+        <v>0.06269658786101379</v>
       </c>
       <c r="D88">
-        <v>-0.0487520816517042</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02741015393036282</v>
+      </c>
+      <c r="E88">
+        <v>0.03602963628954738</v>
+      </c>
+      <c r="F88">
+        <v>-0.0009083053218664583</v>
+      </c>
+      <c r="G88">
+        <v>-0.002450300089857585</v>
+      </c>
+      <c r="H88">
+        <v>0.02005285885150217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1987393527107126</v>
+        <v>-0.2557678720555381</v>
       </c>
       <c r="C89">
-        <v>0.3682975929214021</v>
+        <v>-0.3553995624757163</v>
       </c>
       <c r="D89">
-        <v>0.03895602223748838</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.005528164739412276</v>
+      </c>
+      <c r="E89">
+        <v>0.06213007045000435</v>
+      </c>
+      <c r="F89">
+        <v>0.04257333863000703</v>
+      </c>
+      <c r="G89">
+        <v>0.02210864868671651</v>
+      </c>
+      <c r="H89">
+        <v>0.04575132919623007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1883665845164114</v>
+        <v>-0.2268947678597656</v>
       </c>
       <c r="C90">
-        <v>0.3009598990101451</v>
+        <v>-0.2731883868363998</v>
       </c>
       <c r="D90">
-        <v>0.03547522244589735</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01241079403076773</v>
+      </c>
+      <c r="E90">
+        <v>0.05210164250052936</v>
+      </c>
+      <c r="F90">
+        <v>-0.001756991055569018</v>
+      </c>
+      <c r="G90">
+        <v>-0.02836160095344099</v>
+      </c>
+      <c r="H90">
+        <v>0.05388720460869796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1841683974178303</v>
+        <v>-0.1732496671919139</v>
       </c>
       <c r="C91">
-        <v>-0.1445432041344362</v>
+        <v>0.1600800449802064</v>
       </c>
       <c r="D91">
-        <v>0.04834920143949782</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08476616905500875</v>
+      </c>
+      <c r="E91">
+        <v>0.09808693454507274</v>
+      </c>
+      <c r="F91">
+        <v>-0.0168657867648821</v>
+      </c>
+      <c r="G91">
+        <v>0.05146866194335747</v>
+      </c>
+      <c r="H91">
+        <v>-0.1512711318731793</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1574884149262057</v>
+        <v>-0.2015371098588116</v>
       </c>
       <c r="C92">
-        <v>0.2993481018531101</v>
+        <v>-0.2810410421535358</v>
       </c>
       <c r="D92">
-        <v>-0.003802897109351104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01483709730464832</v>
+      </c>
+      <c r="E92">
+        <v>0.08807639687611865</v>
+      </c>
+      <c r="F92">
+        <v>0.03916385166286321</v>
+      </c>
+      <c r="G92">
+        <v>0.01175109269835639</v>
+      </c>
+      <c r="H92">
+        <v>0.0347496197605268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2159102161014866</v>
+        <v>-0.2494752054824856</v>
       </c>
       <c r="C93">
-        <v>0.3174821258648767</v>
+        <v>-0.2867800293826083</v>
       </c>
       <c r="D93">
-        <v>0.02256049564827619</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.008204111515993595</v>
+      </c>
+      <c r="E93">
+        <v>0.02693693976502793</v>
+      </c>
+      <c r="F93">
+        <v>-0.03193253630655414</v>
+      </c>
+      <c r="G93">
+        <v>0.01468025020187355</v>
+      </c>
+      <c r="H93">
+        <v>0.007190800001507873</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3961788234272492</v>
+        <v>-0.345576119448012</v>
       </c>
       <c r="C94">
-        <v>-0.2330753532923537</v>
+        <v>0.2433636405164407</v>
       </c>
       <c r="D94">
-        <v>0.4626380506048789</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4444433585613301</v>
+      </c>
+      <c r="E94">
+        <v>0.1105908084486592</v>
+      </c>
+      <c r="F94">
+        <v>0.03510794023106736</v>
+      </c>
+      <c r="G94">
+        <v>-0.598128035645745</v>
+      </c>
+      <c r="H94">
+        <v>0.07796672582187213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0892753858378089</v>
+        <v>-0.07502260160282066</v>
       </c>
       <c r="C95">
-        <v>0.01376292730619469</v>
+        <v>0.05120903042696094</v>
       </c>
       <c r="D95">
-        <v>-0.05527725673810945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08440185431441319</v>
+      </c>
+      <c r="E95">
+        <v>-0.1140634275452758</v>
+      </c>
+      <c r="F95">
+        <v>0.9059318025603196</v>
+      </c>
+      <c r="G95">
+        <v>0.05179375459547527</v>
+      </c>
+      <c r="H95">
+        <v>-0.05382912735818772</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1778813280443373</v>
+        <v>-0.1702396715922086</v>
       </c>
       <c r="C98">
-        <v>-0.02565492685227719</v>
+        <v>0.05366440866972411</v>
       </c>
       <c r="D98">
-        <v>-0.1302059729084557</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1371953328059278</v>
+      </c>
+      <c r="E98">
+        <v>-0.2873343827260726</v>
+      </c>
+      <c r="F98">
+        <v>-0.08751342995893929</v>
+      </c>
+      <c r="G98">
+        <v>0.01986202798084361</v>
+      </c>
+      <c r="H98">
+        <v>-0.02511464730058572</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004337162700395755</v>
+        <v>-0.006794215542475148</v>
       </c>
       <c r="C101">
-        <v>-0.01361993964787755</v>
+        <v>0.01930880692586954</v>
       </c>
       <c r="D101">
-        <v>-0.06154163794925224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07615652051336988</v>
+      </c>
+      <c r="E101">
+        <v>0.04965935477425081</v>
+      </c>
+      <c r="F101">
+        <v>0.0007437830168606987</v>
+      </c>
+      <c r="G101">
+        <v>0.03551891066313394</v>
+      </c>
+      <c r="H101">
+        <v>0.0929387120970511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1304016741703737</v>
+        <v>-0.1170937277725685</v>
       </c>
       <c r="C102">
-        <v>-0.1019358818763768</v>
+        <v>0.117083768298564</v>
       </c>
       <c r="D102">
-        <v>0.03094682657459505</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05057286033318352</v>
+      </c>
+      <c r="E102">
+        <v>0.02926001108880614</v>
+      </c>
+      <c r="F102">
+        <v>0.02089908247536248</v>
+      </c>
+      <c r="G102">
+        <v>0.04979054394004238</v>
+      </c>
+      <c r="H102">
+        <v>-0.008005794042100773</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
